--- a/resources/tools/wordlist_E-J/lessons-3rd/lesson-21.xlsx
+++ b/resources/tools/wordlist_E-J/lessons-3rd/lesson-21.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,6 +1105,750 @@
         </is>
       </c>
     </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>to believe</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>信じる|しんじる</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>confidence</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>自信|じしん</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>traffic signal</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>信号|しんごう</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>superstition</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>迷信|めいしん</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>experience</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>経験|けいけん</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>economy</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>経済|けいざい</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>oversensitive</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>神経質|しんけいしつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>management studies</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>経営学|けいえいがく</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>via Paris</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>パリ経由|パリけいゆ</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>typhoon</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>台風|たいふう</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>two vehicles/machines/etc.</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>二台|にだい</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>stage</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>舞台|ぶたい</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>kitchen</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>台所|だいどころ</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>typhoon</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>台風|たいふう</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>bath</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>お風呂|おふろ</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Japanese style</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>和風|わふう</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>wind</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>風|かぜ</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>to catch a cold</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>風邪をひく|かぜをひく</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>dog</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>犬|いぬ</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>puppy</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>子犬|こいぬ</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>watch dog</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>番犬|ばんけん</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>seeing-eye dog</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>盲導犬|もうどうけん</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>heavy; serious (illness)</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>重い|おもい</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>to pile up</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>重ねる|かさねる</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>body weight</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>体重|たいじゅう</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>valuables</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>貴重品|きちょうひん</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>at first</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>初めは|はじめは</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>first time</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>初めて|はじめて</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>first</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>最初|さいしょ</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>first snow</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>初雪|はつゆき</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>first love</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>初恋|はつこい</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>young</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>若い|わかい</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>young people</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>若者|わかもの</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>youthful</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>若々しい|わかわかしい</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>to send</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>送る|おくる</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>sending money</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>送金|そうきん</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>postage</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>送料|そうりょう</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>broadcast</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>放送|ほうそう</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>out-of-service train</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>回送電車|かいそうでんしゃ</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>happy (しあわ)</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>幸せな|しあわせな</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>happy (こう)</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>幸福な|こうふくな</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>good fortune</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>幸運|こううん</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>misfortune</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>不幸|ふこう</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>fortunately</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>幸い|さいわい</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>watch; clock</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>時計|とけい</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>plan</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>計画|けいかく</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>sum</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>合計|ごうけい</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>to measure</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>計る|はかる</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>to be late (る)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>遅れる|おくれる</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>to miss (transportation)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>乗り遅れる|のりおくれる</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>late</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>遅い|おそい</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>to be late (する)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>遅刻する|ちこくする</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>worried about</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>心配な|しんぱいな</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>to distribute</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>配る|くばる</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>delivery</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>配達|はいたつ</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>home delivery service</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>宅配便|たくはいびん</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>younger brother</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>弟|おとうと</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>brothers</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>兄弟|きょうだい</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>apprentice</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>弟子|でし</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>younger sister</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>妹|いもうと</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>sisters</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>姉妹|しまい</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>sister school</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>姉妹校|しまいこう</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
